--- a/ML/Classification.xlsx
+++ b/ML/Classification.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Interview Prep\AI Engineer\ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8A079F-04E9-49DD-A47B-46D935E48AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D65A5BC-6E4E-4699-A281-E298A61C2E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10967" yWindow="0" windowWidth="11244" windowHeight="11831" activeTab="1" xr2:uid="{63EC0CAB-7A3F-460D-8C38-D20B976D79B9}"/>
+    <workbookView xWindow="10967" yWindow="0" windowWidth="11244" windowHeight="11831" xr2:uid="{63EC0CAB-7A3F-460D-8C38-D20B976D79B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
     <sheet name="Class Imbalance" sheetId="2" r:id="rId2"/>
+    <sheet name="BaggingRegression" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Classification Metrics</t>
   </si>
@@ -100,13 +101,46 @@
   </si>
   <si>
     <t>SMOTTomek</t>
+  </si>
+  <si>
+    <t>DT Regression</t>
+  </si>
+  <si>
+    <t>R2_Score</t>
+  </si>
+  <si>
+    <t>Mean_Absolute_Error</t>
+  </si>
+  <si>
+    <t>Mean_Squared_Error</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>Bagged Regressor</t>
+  </si>
+  <si>
+    <t>Bagged Regressor (SVM)</t>
+  </si>
+  <si>
+    <t>Random Forest Regressor</t>
+  </si>
+  <si>
+    <t>AdaBoost</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,13 +162,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -146,18 +199,120 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -270,14 +425,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C40FB8C6-77C2-4678-922B-D51C765E4B10}" name="Table1" displayName="Table1" ref="A3:E14" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C40FB8C6-77C2-4678-922B-D51C765E4B10}" name="Table1" displayName="Table1" ref="A3:E14" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A3:E14" xr:uid="{C40FB8C6-77C2-4678-922B-D51C765E4B10}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7A4240E8-9EB9-4A80-9933-D2A994076543}" name="Strategy" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{A0F96810-2848-46E9-A4DD-5F0A285F25A1}" name="Accuracy" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{0C4C8B10-8D30-4600-8F64-D6939C57C3A1}" name="Precision" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{3D41B3DE-E657-41EF-9447-5A1008C29D5F}" name="Recall" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{6C1C1C0A-9922-407A-BAB6-03BE19FEB790}" name="F1" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{7A4240E8-9EB9-4A80-9933-D2A994076543}" name="Strategy" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{A0F96810-2848-46E9-A4DD-5F0A285F25A1}" name="Accuracy" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{0C4C8B10-8D30-4600-8F64-D6939C57C3A1}" name="Precision" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{3D41B3DE-E657-41EF-9447-5A1008C29D5F}" name="Recall" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{6C1C1C0A-9922-407A-BAB6-03BE19FEB790}" name="F1" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{22188148-3F73-4813-B667-A75ECA4860DD}" name="Table13" displayName="Table13" ref="A1:E5" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:E5" xr:uid="{22188148-3F73-4813-B667-A75ECA4860DD}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{1E28778A-8F09-46AA-9AF5-4FFCB1B84BCE}" name="Strategy" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{C6E41581-F2E1-4480-92D5-60F01FE9FB83}" name="R2_Score" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{7DB4FE68-BE71-49FF-8377-C703DBCAE98D}" name="Mean_Absolute_Error" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{349DCB23-19B7-4F65-A91B-00B83A984DAD}" name="Mean_Squared_Error" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{52CDB3E1-2519-4D9F-9C49-49036CB34A8A}" name="RMSE" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -600,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD44E00-8623-4079-82CE-DCA736AB787D}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:E9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,105 +800,134 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>76</v>
-      </c>
-      <c r="C4">
-        <v>0.51</v>
-      </c>
-      <c r="D4">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E4">
-        <v>0.56000000000000005</v>
+      <c r="B4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5">
         <v>0.51</v>
       </c>
       <c r="D5">
-        <v>0.53</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E5">
-        <v>0.52</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C6">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="D6">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="E6">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7">
-        <v>0.78</v>
+        <v>0.48</v>
       </c>
       <c r="D7">
-        <v>0.51</v>
+        <v>0.67</v>
       </c>
       <c r="E7">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C8">
-        <v>0.55000000000000004</v>
+        <v>0.78</v>
       </c>
       <c r="D8">
-        <v>0.66</v>
+        <v>0.51</v>
       </c>
       <c r="E8">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D9">
+        <v>0.66</v>
+      </c>
+      <c r="E9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>79</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>0.48</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>0.67</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -741,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8748D4-7863-46F0-8006-96FE707C24FE}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A2" zoomScale="78" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -949,4 +1147,107 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6F4814-0D81-43A1-A5E7-A96EC901547D}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.69921875" customWidth="1"/>
+    <col min="2" max="2" width="8.296875" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" customWidth="1"/>
+    <col min="5" max="5" width="13.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C3" s="3">
+        <v>17.55</v>
+      </c>
+      <c r="D3" s="3">
+        <v>479.71</v>
+      </c>
+      <c r="E3" s="3">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.06</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3.1659999999999999</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/ML/Classification.xlsx
+++ b/ML/Classification.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Interview Prep\AI Engineer\ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D65A5BC-6E4E-4699-A281-E298A61C2E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3876FA-A4C6-408C-9388-2ECD5CAE9A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10967" yWindow="0" windowWidth="11244" windowHeight="11831" xr2:uid="{63EC0CAB-7A3F-460D-8C38-D20B976D79B9}"/>
+    <workbookView xWindow="10967" yWindow="0" windowWidth="11244" windowHeight="11831" activeTab="1" xr2:uid="{63EC0CAB-7A3F-460D-8C38-D20B976D79B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
-    <sheet name="Class Imbalance" sheetId="2" r:id="rId2"/>
-    <sheet name="BaggingRegression" sheetId="3" r:id="rId3"/>
+    <sheet name="ARIMA(Time Series)" sheetId="4" r:id="rId2"/>
+    <sheet name="Class Imbalance" sheetId="2" r:id="rId3"/>
+    <sheet name="BaggingRegression" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>Classification Metrics</t>
   </si>
@@ -134,13 +135,112 @@
   </si>
   <si>
     <t>XGBoost</t>
+  </si>
+  <si>
+    <t>Time Series</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Critical Value (10%)</t>
+  </si>
+  <si>
+    <t>Critical Value (5%)</t>
+  </si>
+  <si>
+    <t>Critical Value (1%)</t>
+  </si>
+  <si>
+    <t>Test Statistics</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>eg -2.8</t>
+  </si>
+  <si>
+    <t>With 90% confidence, we can say Ts is stationary because -2.8 lies b/w CV of 5% and 10%</t>
+  </si>
+  <si>
+    <t>eg -3.1</t>
+  </si>
+  <si>
+    <t>eg - 5.1</t>
+  </si>
+  <si>
+    <t>With 95% confidence, we can say Ts is stationary because -3.1 lies b/w CV of 5% and 1%</t>
+  </si>
+  <si>
+    <t>With 99% confidence, we can say Ts is stationary because -5.1 lies beyond 1%</t>
+  </si>
+  <si>
+    <t>p value &gt; 0.05, TS is not stationary</t>
+  </si>
+  <si>
+    <t>now -0.815</t>
+  </si>
+  <si>
+    <t>Value far beyond CVs therefore Ts is not stationary</t>
+  </si>
+  <si>
+    <t>Based on Test Statistics and P value both, original Ts is not stationary.</t>
+  </si>
+  <si>
+    <t>Stationary</t>
+  </si>
+  <si>
+    <t>Not</t>
+  </si>
+  <si>
+    <t>Log Transformed</t>
+  </si>
+  <si>
+    <t>p value &lt; 0.05, TS is  stationary</t>
+  </si>
+  <si>
+    <t>now = -1.71</t>
+  </si>
+  <si>
+    <t>p value &gt; 0.05, TS is not  stationary</t>
+  </si>
+  <si>
+    <t>Double Log</t>
+  </si>
+  <si>
+    <t>now = -2.15</t>
+  </si>
+  <si>
+    <t>Value beyond CVs therefore Ts is not stationary</t>
+  </si>
+  <si>
+    <t>Log + MA + Diff</t>
+  </si>
+  <si>
+    <t>now = -3.16</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Exponential Weighted Avg</t>
+  </si>
+  <si>
+    <t>now = -2.47</t>
+  </si>
+  <si>
+    <t>With 95% confidence, we can say Ts is stationary because -3.16 lies between CV of 5% and 1%</t>
+  </si>
+  <si>
+    <t>With 95% confidence, we can say Ts is stationary because -2.47 lies between CV of 5% and 10%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,8 +276,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,8 +297,14 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -198,17 +312,256 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -439,14 +792,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{22188148-3F73-4813-B667-A75ECA4860DD}" name="Table13" displayName="Table13" ref="A1:E5" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{22188148-3F73-4813-B667-A75ECA4860DD}" name="Table13" displayName="Table13" ref="A1:E5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E5" xr:uid="{22188148-3F73-4813-B667-A75ECA4860DD}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1E28778A-8F09-46AA-9AF5-4FFCB1B84BCE}" name="Strategy" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{C6E41581-F2E1-4480-92D5-60F01FE9FB83}" name="R2_Score" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{7DB4FE68-BE71-49FF-8377-C703DBCAE98D}" name="Mean_Absolute_Error" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{349DCB23-19B7-4F65-A91B-00B83A984DAD}" name="Mean_Squared_Error" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{52CDB3E1-2519-4D9F-9C49-49036CB34A8A}" name="RMSE" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1E28778A-8F09-46AA-9AF5-4FFCB1B84BCE}" name="Strategy" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{C6E41581-F2E1-4480-92D5-60F01FE9FB83}" name="R2_Score" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{7DB4FE68-BE71-49FF-8377-C703DBCAE98D}" name="Mean_Absolute_Error" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{349DCB23-19B7-4F65-A91B-00B83A984DAD}" name="Mean_Squared_Error" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{52CDB3E1-2519-4D9F-9C49-49036CB34A8A}" name="RMSE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -771,7 +1124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD44E00-8623-4079-82CE-DCA736AB787D}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -936,6 +1289,358 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4AE259-A47B-42FE-914F-0E4436DCB7D1}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.69921875" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
+    <col min="5" max="5" width="16.8984375" customWidth="1"/>
+    <col min="6" max="6" width="16.19921875" customWidth="1"/>
+    <col min="7" max="7" width="13.59765625" style="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="D3" s="5">
+        <v>-2.57</v>
+      </c>
+      <c r="E3" s="5">
+        <v>-2.88</v>
+      </c>
+      <c r="F3" s="5">
+        <v>-3.48</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="5">
+        <v>-1.71</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-2.57</v>
+      </c>
+      <c r="E17" s="5">
+        <v>-2.88</v>
+      </c>
+      <c r="F17" s="5">
+        <v>-3.48</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="25">
+        <v>-2.15</v>
+      </c>
+      <c r="C22" s="25">
+        <v>0.22</v>
+      </c>
+      <c r="D22" s="5">
+        <v>-2.57</v>
+      </c>
+      <c r="E22" s="5">
+        <v>-2.88</v>
+      </c>
+      <c r="F22" s="5">
+        <v>-3.48</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C23" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="25">
+        <v>-3.16</v>
+      </c>
+      <c r="C27" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="D27" s="5">
+        <v>-2.57</v>
+      </c>
+      <c r="E27" s="5">
+        <v>-2.88</v>
+      </c>
+      <c r="F27" s="5">
+        <v>-3.48</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C28" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C29" s="17"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="33">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="C33" s="33">
+        <v>0.121</v>
+      </c>
+      <c r="D33" s="5">
+        <v>-2.57</v>
+      </c>
+      <c r="E33" s="5">
+        <v>-2.88</v>
+      </c>
+      <c r="F33" s="5">
+        <v>-3.48</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="34"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="36"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C35" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C36" s="17"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:E31"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="C10:E11"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B14:E15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8748D4-7863-46F0-8006-96FE707C24FE}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -1149,7 +1854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6F4814-0D81-43A1-A5E7-A96EC901547D}">
   <dimension ref="A1:E5"/>
   <sheetViews>

--- a/ML/Classification.xlsx
+++ b/ML/Classification.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Interview Prep\AI Engineer\ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3876FA-A4C6-408C-9388-2ECD5CAE9A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3F4691-F2C4-4DA6-AAE7-0AC3698C1899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10967" yWindow="0" windowWidth="11244" windowHeight="11831" activeTab="1" xr2:uid="{63EC0CAB-7A3F-460D-8C38-D20B976D79B9}"/>
+    <workbookView xWindow="-92" yWindow="0" windowWidth="11243" windowHeight="11831" firstSheet="3" activeTab="4" xr2:uid="{63EC0CAB-7A3F-460D-8C38-D20B976D79B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
     <sheet name="ARIMA(Time Series)" sheetId="4" r:id="rId2"/>
     <sheet name="Class Imbalance" sheetId="2" r:id="rId3"/>
     <sheet name="BaggingRegression" sheetId="3" r:id="rId4"/>
+    <sheet name="CNN" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="98">
   <si>
     <t>Classification Metrics</t>
   </si>
@@ -234,13 +235,112 @@
   </si>
   <si>
     <t>With 95% confidence, we can say Ts is stationary because -2.47 lies between CV of 5% and 10%</t>
+  </si>
+  <si>
+    <t>Convolution</t>
+  </si>
+  <si>
+    <t>7*7</t>
+  </si>
+  <si>
+    <t>Image with Pixels</t>
+  </si>
+  <si>
+    <t>Pixels range from 0-255</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Fillers</t>
+  </si>
+  <si>
+    <t>Kernel</t>
+  </si>
+  <si>
+    <t>3*3</t>
+  </si>
+  <si>
+    <t>Black Box</t>
+  </si>
+  <si>
+    <t>5*5</t>
+  </si>
+  <si>
+    <t>25 pixels</t>
+  </si>
+  <si>
+    <t>Feature map</t>
+  </si>
+  <si>
+    <t>Feature Detector -&gt;</t>
+  </si>
+  <si>
+    <t>3*3 Feature Detector is fit to the original image and through some technique values are calcualted and</t>
+  </si>
+  <si>
+    <t>put into 5X5 feature map thus reducing dimesnions but retaining information</t>
+  </si>
+  <si>
+    <t>0*-1 + 0*0 +2* 1 + 0*8+1*8+-1*7+8*-1+4*0+3*1</t>
+  </si>
+  <si>
+    <t>Sum of first 3X3 block from img</t>
+  </si>
+  <si>
+    <t>Compute for rest similarly by going 1 pixel right and in the end 1 pixel down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movement of 1 pixel - stride(hyperparameter)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Stride   - 49 pixels to 25 pixels 50% reduction </t>
+  </si>
+  <si>
+    <t>Relu</t>
+  </si>
+  <si>
+    <t>Less than 0 =0</t>
+  </si>
+  <si>
+    <t>Others = same</t>
+  </si>
+  <si>
+    <t>Pooling</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Goes through entire image in 2X2 and give max if using max pooling else average</t>
+  </si>
+  <si>
+    <t>Flattening</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Flattening-&gt;</t>
+  </si>
+  <si>
+    <t>Fully Connected</t>
+  </si>
+  <si>
+    <t>Now we can  create 9 neurons and perform DL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,8 +384,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +431,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -486,62 +656,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -553,15 +705,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1292,7 +1488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4AE259-A47B-42FE-914F-0E4436DCB7D1}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14:E15"/>
     </sheetView>
   </sheetViews>
@@ -1304,7 +1500,7 @@
     <col min="4" max="4" width="17.796875" customWidth="1"/>
     <col min="5" max="5" width="16.8984375" customWidth="1"/>
     <col min="6" max="6" width="16.19921875" customWidth="1"/>
-    <col min="7" max="7" width="13.59765625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="13.59765625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1326,7 +1522,7 @@
       <c r="F1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1349,89 +1545,89 @@
       <c r="F3" s="5">
         <v>-3.48</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="28" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C5" s="17"/>
+      <c r="C5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -1452,39 +1648,39 @@
       <c r="F17" s="5">
         <v>-3.48</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="28" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C19" s="17"/>
+      <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F21" s="24"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="13">
         <v>-2.15</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="13">
         <v>0.22</v>
       </c>
       <c r="D22" s="5">
@@ -1496,36 +1692,36 @@
       <c r="F22" s="5">
         <v>-3.48</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="28" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C24" s="17"/>
+      <c r="C24" s="21"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="13">
         <v>-3.16</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="14">
         <v>0.02</v>
       </c>
       <c r="D27" s="5">
@@ -1537,41 +1733,41 @@
       <c r="F27" s="5">
         <v>-3.48</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C29" s="17"/>
+      <c r="C29" s="21"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="27"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="33">
+      <c r="B33" s="15">
         <v>-2.4700000000000002</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="15">
         <v>0.121</v>
       </c>
       <c r="D33" s="5">
@@ -1583,43 +1779,49 @@
       <c r="F33" s="5">
         <v>-3.48</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="G33" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="34"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="36"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C36" s="17"/>
+      <c r="C36" s="21"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C38" s="29"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="31"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="C10:E11"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C12:E12"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="C37:E38"/>
@@ -1629,12 +1831,6 @@
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:E31"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="C10:E11"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B14:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1955,4 +2151,868 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0ECA51D-189D-4708-BA80-301961C849FF}">
+  <dimension ref="A1:R69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="23.65" x14ac:dyDescent="0.5">
+      <c r="A1" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="38"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2">
+        <v>49</v>
+      </c>
+      <c r="J2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="O2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B3" s="40">
+        <v>0</v>
+      </c>
+      <c r="C3" s="44">
+        <v>0</v>
+      </c>
+      <c r="D3" s="44">
+        <v>2</v>
+      </c>
+      <c r="E3" s="44">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5">
+        <v>6</v>
+      </c>
+      <c r="H3" s="5">
+        <v>5</v>
+      </c>
+      <c r="J3" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5">
+        <v>-2</v>
+      </c>
+      <c r="O3" s="5">
+        <v>1</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>2</v>
+      </c>
+      <c r="R3" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="40">
+        <v>8</v>
+      </c>
+      <c r="C4" s="44">
+        <v>8</v>
+      </c>
+      <c r="D4" s="44">
+        <v>7</v>
+      </c>
+      <c r="E4" s="44">
+        <v>6</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>5</v>
+      </c>
+      <c r="H4" s="5">
+        <v>4</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N4" s="5">
+        <v>2</v>
+      </c>
+      <c r="O4" s="5">
+        <v>4</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>4</v>
+      </c>
+      <c r="R4" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="40">
+        <v>8</v>
+      </c>
+      <c r="C5" s="44">
+        <v>4</v>
+      </c>
+      <c r="D5" s="44">
+        <v>3</v>
+      </c>
+      <c r="E5" s="44">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5">
+        <v>-2</v>
+      </c>
+      <c r="O5" s="5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>2</v>
+      </c>
+      <c r="R5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5">
+        <v>6</v>
+      </c>
+      <c r="H6" s="5">
+        <v>5</v>
+      </c>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="N6" s="5">
+        <v>2</v>
+      </c>
+      <c r="O6" s="5">
+        <v>4</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>4</v>
+      </c>
+      <c r="R6" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5">
+        <v>6</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5">
+        <v>5</v>
+      </c>
+      <c r="H7" s="5">
+        <v>4</v>
+      </c>
+      <c r="N7" s="12">
+        <v>-2</v>
+      </c>
+      <c r="O7" s="12">
+        <v>1</v>
+      </c>
+      <c r="P7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>2</v>
+      </c>
+      <c r="R7" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>3</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="39"/>
+      <c r="L9" s="42"/>
+      <c r="O9" s="43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="41"/>
+    </row>
+    <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C14" s="8">
+        <v>255</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15">
+        <f>-2</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
+        <v>-2</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2</v>
+      </c>
+      <c r="F24" s="5">
+        <v>3</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
+        <v>2</v>
+      </c>
+      <c r="L24" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="5">
+        <v>2</v>
+      </c>
+      <c r="C25" s="5">
+        <v>4</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>4</v>
+      </c>
+      <c r="F25" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <v>4</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5">
+        <v>4</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
+        <v>-2</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>2</v>
+      </c>
+      <c r="F26" s="5">
+        <v>3</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5">
+        <v>2</v>
+      </c>
+      <c r="L26" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="5">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5">
+        <v>4</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>4</v>
+      </c>
+      <c r="F27" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>4</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5">
+        <v>4</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="12">
+        <v>-2</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12">
+        <v>2</v>
+      </c>
+      <c r="F28" s="12">
+        <v>3</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="12">
+        <v>1</v>
+      </c>
+      <c r="J28" s="12">
+        <v>0</v>
+      </c>
+      <c r="K28" s="12">
+        <v>2</v>
+      </c>
+      <c r="L28" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="31.7" x14ac:dyDescent="0.65">
+      <c r="A34" s="45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J36" t="s">
+        <v>90</v>
+      </c>
+      <c r="K36" t="s">
+        <v>91</v>
+      </c>
+      <c r="N36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B37" s="44">
+        <v>0</v>
+      </c>
+      <c r="C37" s="44">
+        <v>1</v>
+      </c>
+      <c r="D37" s="46">
+        <v>0</v>
+      </c>
+      <c r="E37" s="46">
+        <v>2</v>
+      </c>
+      <c r="F37" s="40">
+        <v>3</v>
+      </c>
+      <c r="G37" s="47"/>
+      <c r="I37" s="5">
+        <v>4</v>
+      </c>
+      <c r="J37" s="5">
+        <v>4</v>
+      </c>
+      <c r="K37" s="5">
+        <v>3</v>
+      </c>
+      <c r="M37" s="59"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B38" s="44">
+        <v>0</v>
+      </c>
+      <c r="C38" s="44">
+        <v>4</v>
+      </c>
+      <c r="D38" s="46">
+        <v>0</v>
+      </c>
+      <c r="E38" s="46">
+        <v>4</v>
+      </c>
+      <c r="F38" s="40">
+        <v>0</v>
+      </c>
+      <c r="G38" s="47"/>
+      <c r="I38" s="5">
+        <v>4</v>
+      </c>
+      <c r="J38" s="5">
+        <v>4</v>
+      </c>
+      <c r="K38" s="5">
+        <v>3</v>
+      </c>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B39" s="48">
+        <v>0</v>
+      </c>
+      <c r="C39" s="48">
+        <v>1</v>
+      </c>
+      <c r="D39" s="49">
+        <v>0</v>
+      </c>
+      <c r="E39" s="49">
+        <v>2</v>
+      </c>
+      <c r="F39" s="50">
+        <v>3</v>
+      </c>
+      <c r="G39" s="51"/>
+      <c r="I39" s="5">
+        <v>1</v>
+      </c>
+      <c r="J39" s="5">
+        <v>2</v>
+      </c>
+      <c r="K39" s="5">
+        <v>3</v>
+      </c>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B40" s="48">
+        <v>0</v>
+      </c>
+      <c r="C40" s="48">
+        <v>4</v>
+      </c>
+      <c r="D40" s="49">
+        <v>0</v>
+      </c>
+      <c r="E40" s="49">
+        <v>4</v>
+      </c>
+      <c r="F40" s="50">
+        <v>0</v>
+      </c>
+      <c r="G40" s="51"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B41" s="52">
+        <v>0</v>
+      </c>
+      <c r="C41" s="53">
+        <v>1</v>
+      </c>
+      <c r="D41" s="55">
+        <v>0</v>
+      </c>
+      <c r="E41" s="55">
+        <v>2</v>
+      </c>
+      <c r="F41" s="57">
+        <v>3</v>
+      </c>
+      <c r="G41" s="58"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="33.450000000000003" x14ac:dyDescent="0.65">
+      <c r="A47" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I48" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C49" s="5">
+        <v>4</v>
+      </c>
+      <c r="D49" s="5">
+        <v>4</v>
+      </c>
+      <c r="E49" s="5">
+        <v>3</v>
+      </c>
+      <c r="I49" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C50" s="5">
+        <v>4</v>
+      </c>
+      <c r="D50" s="5">
+        <v>4</v>
+      </c>
+      <c r="E50" s="5">
+        <v>3</v>
+      </c>
+      <c r="G50" t="s">
+        <v>95</v>
+      </c>
+      <c r="I50" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5">
+        <v>2</v>
+      </c>
+      <c r="E51" s="5">
+        <v>3</v>
+      </c>
+      <c r="I51" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I52" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I53" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I54" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I55" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I56" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="28.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" s="60"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B62" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="5">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>